--- a/Base/Teams/49ers/Players Data.xlsx
+++ b/Base/Teams/49ers/Players Data.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/Simulation app/49ers/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_EA86EAC522A98C35AD523337F5EA457781BD6A58" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F5DB8A3-8440-4B20-B047-804C77B69B0A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -65,6 +59,9 @@
     <t>J.Jennings</t>
   </si>
   <si>
+    <t>G.Kittle</t>
+  </si>
+  <si>
     <t>Short Target</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
   </si>
   <si>
     <t>T.Sherfield</t>
-  </si>
-  <si>
-    <t>G.Kittle</t>
   </si>
   <si>
     <t>R.Dwelley</t>
@@ -101,8 +95,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +159,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -219,7 +205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,27 +237,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,24 +271,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,16 +446,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -536,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -562,7 +510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -582,7 +530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -590,19 +538,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -622,7 +570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -642,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -662,9 +610,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -682,9 +630,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -700,6 +648,26 @@
       </c>
       <c r="F10">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -708,39 +676,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -766,7 +732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -774,10 +740,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -792,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -818,7 +784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -826,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -844,7 +810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -870,24 +836,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -896,12 +862,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>21</v>
@@ -922,87 +888,87 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
         <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>65</v>
+      </c>
+      <c r="D11">
+        <v>52</v>
+      </c>
+      <c r="E11">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
         <v>10</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
-        <v>58</v>
-      </c>
-      <c r="D11">
-        <v>47</v>
-      </c>
-      <c r="E11">
-        <v>16</v>
-      </c>
-      <c r="F11">
-        <v>11</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1026,9 +992,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>

--- a/Base/Teams/49ers/Players Data.xlsx
+++ b/Base/Teams/49ers/Players Data.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/49ers/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_1558CAC74A91005605703837F5EA457781334ECB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A508EF98-FD0D-4F61-8724-49A4A77B6319}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -90,13 +96,16 @@
   </si>
   <si>
     <t>C.Woerner</t>
+  </si>
+  <si>
+    <t>D.Samuel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -144,13 +153,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -159,6 +182,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -205,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,9 +268,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,6 +320,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -446,14 +513,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -490,7 +559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -510,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -530,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -550,7 +619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -570,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -590,7 +659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -610,7 +679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -630,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -650,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -668,6 +737,26 @@
       </c>
       <c r="F11">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -676,14 +765,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -732,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -758,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -784,7 +875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -810,7 +901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -836,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -862,7 +953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -888,7 +979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -914,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -940,7 +1031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -966,7 +1057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -992,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,6 +1107,32 @@
       </c>
       <c r="H13">
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>69</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/49ers/Players Data.xlsx
+++ b/Base/Teams/49ers/Players Data.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/49ers/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_1558CAC74A91005605703837F5EA457781334ECB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A508EF98-FD0D-4F61-8724-49A4A77B6319}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -59,6 +53,9 @@
     <t>J.Wilson</t>
   </si>
   <si>
+    <t>D.Samuel</t>
+  </si>
+  <si>
     <t>B.Aiyuk</t>
   </si>
   <si>
@@ -96,16 +93,13 @@
   </si>
   <si>
     <t>C.Woerner</t>
-  </si>
-  <si>
-    <t>D.Samuel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -153,27 +147,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -182,14 +162,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -236,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,27 +240,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,24 +274,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -513,16 +449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -553,13 +487,13 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -579,7 +513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -599,7 +533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -619,7 +553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -639,7 +573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,7 +593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -679,7 +613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,19 +621,19 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -707,19 +641,19 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -736,27 +670,27 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -765,39 +699,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -823,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -849,7 +781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -857,10 +789,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -875,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -883,11 +815,11 @@
         <v>10</v>
       </c>
       <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
         <v>20</v>
       </c>
-      <c r="D5">
-        <v>19</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -895,13 +827,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -927,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -935,51 +867,51 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -987,51 +919,51 @@
         <v>22</v>
       </c>
       <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9">
         <v>14</v>
       </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>7</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1039,51 +971,51 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
       <c r="H11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1091,13 +1023,13 @@
         <v>24</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1109,30 +1041,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/49ers/Players Data.xlsx
+++ b/Base/Teams/49ers/Players Data.xlsx
@@ -481,13 +481,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -561,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -587,10 +587,10 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -601,16 +601,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -621,16 +621,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -789,10 +789,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -801,10 +801,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -815,10 +815,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -841,10 +841,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -853,10 +853,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -867,19 +867,19 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -899,10 +899,10 @@
         <v>31</v>
       </c>
       <c r="E8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>8</v>
@@ -945,7 +945,7 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -971,10 +971,10 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -983,10 +983,10 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -997,22 +997,22 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D12">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E12">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8">

--- a/Base/Teams/49ers/Players Data.xlsx
+++ b/Base/Teams/49ers/Players Data.xlsx
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -567,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -601,16 +601,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -621,16 +621,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -789,10 +789,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -815,16 +815,16 @@
         <v>10</v>
       </c>
       <c r="C5">
+        <v>26</v>
+      </c>
+      <c r="D5">
         <v>23</v>
       </c>
-      <c r="D5">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -841,10 +841,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -853,10 +853,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -867,16 +867,16 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D7">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -893,10 +893,10 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>19</v>
@@ -905,10 +905,10 @@
         <v>11</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -971,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -997,10 +997,10 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D12">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E12">
         <v>26</v>
@@ -1009,7 +1009,7 @@
         <v>19</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12">
         <v>6</v>

--- a/Base/Teams/49ers/Players Data.xlsx
+++ b/Base/Teams/49ers/Players Data.xlsx
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -541,16 +541,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -621,16 +621,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -763,10 +763,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -789,10 +789,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -801,10 +801,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -815,10 +815,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -867,19 +867,19 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -893,16 +893,16 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -945,10 +945,10 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -971,10 +971,10 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -1003,10 +1003,10 @@
         <v>68</v>
       </c>
       <c r="E12">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12">
         <v>7</v>

--- a/Base/Teams/49ers/Players Data.xlsx
+++ b/Base/Teams/49ers/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>T.Sherfield</t>
+  </si>
+  <si>
+    <t>T.Benjamin</t>
   </si>
   <si>
     <t>R.Dwelley</t>
@@ -481,13 +484,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -541,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D5">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -567,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -621,16 +624,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -700,7 +703,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -763,10 +766,10 @@
         <v>8</v>
       </c>
       <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
         <v>18</v>
-      </c>
-      <c r="D3">
-        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -789,13 +792,13 @@
         <v>9</v>
       </c>
       <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4">
         <v>17</v>
       </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -815,10 +818,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -867,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E7">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -893,16 +896,16 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -945,10 +948,10 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -971,22 +974,22 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
         <v>6</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -994,25 +997,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1020,25 +1023,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1049,21 +1052,47 @@
         <v>25</v>
       </c>
       <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
         <v>5</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/49ers/Players Data.xlsx
+++ b/Base/Teams/49ers/Players Data.xlsx
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D5">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -587,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -624,16 +624,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -766,10 +766,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D7">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E7">
         <v>32</v>
@@ -896,7 +896,7 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <v>43</v>
@@ -974,10 +974,10 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -1026,19 +1026,19 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D13">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E13">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H13">
         <v>7</v>
@@ -1078,7 +1078,7 @@
         <v>26</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>4</v>

--- a/Base/Teams/49ers/Players Data.xlsx
+++ b/Base/Teams/49ers/Players Data.xlsx
@@ -487,7 +487,7 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>14</v>
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D5">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E5">
         <v>15</v>
       </c>
       <c r="F5">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -590,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -624,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -766,16 +766,16 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -792,10 +792,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -870,16 +870,16 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>12</v>
@@ -896,16 +896,16 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D8">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -974,10 +974,10 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -1000,7 +1000,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1026,22 +1026,22 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13">
         <v>21</v>
       </c>
       <c r="G13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8">
